--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y726"/>
+  <dimension ref="A1:Y727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43613,7 +43613,7 @@
       </c>
       <c r="R725" s="2" t="inlineStr"/>
     </row>
-    <row r="726">
+    <row r="726" ht="15" customHeight="1">
       <c r="A726" t="inlineStr">
         <is>
           <t>A 40147-2023</t>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43669,6 +43669,68 @@
         <v>0</v>
       </c>
       <c r="R726" s="2" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>A 42241-2023</t>
+        </is>
+      </c>
+      <c r="B727" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C727" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>VIMMERBY</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G727" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="n">
+        <v>0</v>
+      </c>
+      <c r="J727" t="n">
+        <v>0</v>
+      </c>
+      <c r="K727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N727" t="n">
+        <v>0</v>
+      </c>
+      <c r="O727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R727" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y727"/>
+  <dimension ref="A1:Y728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43670,7 +43670,7 @@
       </c>
       <c r="R726" s="2" t="inlineStr"/>
     </row>
-    <row r="727">
+    <row r="727" ht="15" customHeight="1">
       <c r="A727" t="inlineStr">
         <is>
           <t>A 42241-2023</t>
@@ -43680,7 +43680,7 @@
         <v>45180</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43731,6 +43731,63 @@
         <v>0</v>
       </c>
       <c r="R727" s="2" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>A 42689-2023</t>
+        </is>
+      </c>
+      <c r="B728" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C728" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>VIMMERBY</t>
+        </is>
+      </c>
+      <c r="G728" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0</v>
+      </c>
+      <c r="J728" t="n">
+        <v>0</v>
+      </c>
+      <c r="K728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N728" t="n">
+        <v>0</v>
+      </c>
+      <c r="O728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R728" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,31 +663,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37896-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37896-2022.xlsx", "A 37896-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37896-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37896-2022.png", "A 37896-2022")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 37896-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 37896-2022.png", "A 37896-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37896-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37896-2022.docx", "A 37896-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37896-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37896-2022.docx", "A 37896-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37896-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37896-2022.docx", "A 37896-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37896-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37896-2022.docx", "A 37896-2022")</f>
         <v/>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,27 +777,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37886-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37886-2022.xlsx", "A 37886-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37886-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37886-2022.png", "A 37886-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37886-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37886-2022.docx", "A 37886-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37886-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37886-2022.docx", "A 37886-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37886-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37886-2022.docx", "A 37886-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37886-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37886-2022.docx", "A 37886-2022")</f>
         <v/>
       </c>
     </row>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,31 +876,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 13629-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 13629-2019.xlsx", "A 13629-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 13629-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 13629-2019.png", "A 13629-2019")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 13629-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 13629-2019.png", "A 13629-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 13629-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 13629-2019.docx", "A 13629-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 13629-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 13629-2019.docx", "A 13629-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 13629-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 13629-2019.docx", "A 13629-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 13629-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 13629-2019.docx", "A 13629-2019")</f>
         <v/>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,31 +979,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 13628-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 13628-2019.xlsx", "A 13628-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 13628-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 13628-2019.png", "A 13628-2019")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 13628-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 13628-2019.png", "A 13628-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 13628-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 13628-2019.docx", "A 13628-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 13628-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 13628-2019.docx", "A 13628-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 13628-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 13628-2019.docx", "A 13628-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 13628-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 13628-2019.docx", "A 13628-2019")</f>
         <v/>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,31 +1079,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 61460-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 61460-2019.xlsx", "A 61460-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 61460-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 61460-2019.png", "A 61460-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 61460-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 61460-2019.png", "A 61460-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 61460-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 61460-2019.docx", "A 61460-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 61460-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 61460-2019.docx", "A 61460-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 61460-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 61460-2019.docx", "A 61460-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 61460-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 61460-2019.docx", "A 61460-2019")</f>
         <v/>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1176,27 +1176,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37889-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37889-2022.xlsx", "A 37889-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37889-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37889-2022.png", "A 37889-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37889-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37889-2022.docx", "A 37889-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37889-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37889-2022.docx", "A 37889-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37889-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37889-2022.docx", "A 37889-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37889-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37889-2022.docx", "A 37889-2022")</f>
         <v/>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1269,31 +1269,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37906-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37906-2022.xlsx", "A 37906-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37906-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37906-2022.png", "A 37906-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 37906-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 37906-2022.png", "A 37906-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37906-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37906-2022.docx", "A 37906-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37906-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37906-2022.docx", "A 37906-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37906-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37906-2022.docx", "A 37906-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37906-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37906-2022.docx", "A 37906-2022")</f>
         <v/>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1363,27 +1363,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 1960-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 1960-2023.xlsx", "A 1960-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 1960-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 1960-2023.png", "A 1960-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 1960-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 1960-2023.docx", "A 1960-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 1960-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 1960-2023.docx", "A 1960-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 1960-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 1960-2023.docx", "A 1960-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 1960-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 1960-2023.docx", "A 1960-2023")</f>
         <v/>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1451,27 +1451,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 19978-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 19978-2019.xlsx", "A 19978-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 19978-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 19978-2019.png", "A 19978-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 19978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 19978-2019.docx", "A 19978-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 19978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 19978-2019.docx", "A 19978-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 19978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 19978-2019.docx", "A 19978-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 19978-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 19978-2019.docx", "A 19978-2019")</f>
         <v/>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1539,27 +1539,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 62797-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 62797-2019.xlsx", "A 62797-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 62797-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 62797-2019.png", "A 62797-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 62797-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 62797-2019.docx", "A 62797-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 62797-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 62797-2019.docx", "A 62797-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 62797-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 62797-2019.docx", "A 62797-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 62797-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 62797-2019.docx", "A 62797-2019")</f>
         <v/>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,27 +1627,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 35331-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 35331-2022.xlsx", "A 35331-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 35331-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 35331-2022.png", "A 35331-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 35331-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 35331-2022.docx", "A 35331-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 35331-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 35331-2022.docx", "A 35331-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 35331-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 35331-2022.docx", "A 35331-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 35331-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 35331-2022.docx", "A 35331-2022")</f>
         <v/>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1714,27 +1714,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 71226-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 71226-2018.xlsx", "A 71226-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 71226-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 71226-2018.png", "A 71226-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 71226-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 71226-2018.docx", "A 71226-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 71226-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 71226-2018.docx", "A 71226-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 71226-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 71226-2018.docx", "A 71226-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 71226-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 71226-2018.docx", "A 71226-2018")</f>
         <v/>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1801,27 +1801,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 36349-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 36349-2019.xlsx", "A 36349-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 36349-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 36349-2019.png", "A 36349-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 36349-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 36349-2019.docx", "A 36349-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 36349-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 36349-2019.docx", "A 36349-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 36349-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 36349-2019.docx", "A 36349-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 36349-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 36349-2019.docx", "A 36349-2019")</f>
         <v/>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1888,27 +1888,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 8411-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 8411-2021.xlsx", "A 8411-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 8411-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 8411-2021.png", "A 8411-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 8411-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 8411-2021.docx", "A 8411-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 8411-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 8411-2021.docx", "A 8411-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 8411-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 8411-2021.docx", "A 8411-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 8411-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 8411-2021.docx", "A 8411-2021")</f>
         <v/>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1975,27 +1975,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37901-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37901-2022.xlsx", "A 37901-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37901-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37901-2022.png", "A 37901-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37901-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37901-2022.docx", "A 37901-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37901-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37901-2022.docx", "A 37901-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37901-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37901-2022.docx", "A 37901-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37901-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37901-2022.docx", "A 37901-2022")</f>
         <v/>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,31 +2062,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 8214-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 8214-2023.xlsx", "A 8214-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 8214-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 8214-2023.png", "A 8214-2023")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 8214-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 8214-2023.png", "A 8214-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 8214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 8214-2023.docx", "A 8214-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 8214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 8214-2023.docx", "A 8214-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 8214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 8214-2023.docx", "A 8214-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 8214-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 8214-2023.docx", "A 8214-2023")</f>
         <v/>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,27 +2153,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 15427-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 15427-2023.xlsx", "A 15427-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 15427-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 15427-2023.png", "A 15427-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 15427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 15427-2023.docx", "A 15427-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 15427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 15427-2023.docx", "A 15427-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 15427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 15427-2023.docx", "A 15427-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 15427-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 15427-2023.docx", "A 15427-2023")</f>
         <v/>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,27 +2239,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 63698-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 63698-2018.xlsx", "A 63698-2018")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 63698-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 63698-2018.png", "A 63698-2018")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 63698-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 63698-2018.docx", "A 63698-2018")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 63698-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 63698-2018.docx", "A 63698-2018")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 63698-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 63698-2018.docx", "A 63698-2018")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 63698-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 63698-2018.docx", "A 63698-2018")</f>
         <v/>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,27 +2325,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 70416-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 70416-2018.xlsx", "A 70416-2018")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 70416-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 70416-2018.png", "A 70416-2018")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 70416-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 70416-2018.docx", "A 70416-2018")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 70416-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 70416-2018.docx", "A 70416-2018")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 70416-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 70416-2018.docx", "A 70416-2018")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 70416-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 70416-2018.docx", "A 70416-2018")</f>
         <v/>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,27 +2411,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 71214-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 71214-2018.xlsx", "A 71214-2018")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 71214-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 71214-2018.png", "A 71214-2018")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 71214-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 71214-2018.docx", "A 71214-2018")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 71214-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 71214-2018.docx", "A 71214-2018")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 71214-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 71214-2018.docx", "A 71214-2018")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 71214-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 71214-2018.docx", "A 71214-2018")</f>
         <v/>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,27 +2497,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 13588-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 13588-2019.xlsx", "A 13588-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 13588-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 13588-2019.png", "A 13588-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 13588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 13588-2019.docx", "A 13588-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 13588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 13588-2019.docx", "A 13588-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 13588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 13588-2019.docx", "A 13588-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 13588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 13588-2019.docx", "A 13588-2019")</f>
         <v/>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2583,27 +2583,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 13596-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 13596-2019.xlsx", "A 13596-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 13596-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 13596-2019.png", "A 13596-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 13596-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 13596-2019.docx", "A 13596-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 13596-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 13596-2019.docx", "A 13596-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 13596-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 13596-2019.docx", "A 13596-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 13596-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 13596-2019.docx", "A 13596-2019")</f>
         <v/>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2669,27 +2669,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 36803-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 36803-2019.xlsx", "A 36803-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 36803-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 36803-2019.png", "A 36803-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 36803-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 36803-2019.docx", "A 36803-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 36803-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 36803-2019.docx", "A 36803-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 36803-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 36803-2019.docx", "A 36803-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 36803-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 36803-2019.docx", "A 36803-2019")</f>
         <v/>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2755,27 +2755,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 38921-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 38921-2019.xlsx", "A 38921-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 38921-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 38921-2019.png", "A 38921-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 38921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 38921-2019.docx", "A 38921-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 38921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 38921-2019.docx", "A 38921-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 38921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 38921-2019.docx", "A 38921-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 38921-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 38921-2019.docx", "A 38921-2019")</f>
         <v/>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2841,27 +2841,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 41398-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 41398-2021.xlsx", "A 41398-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 41398-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 41398-2021.png", "A 41398-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 41398-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 41398-2021.docx", "A 41398-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 41398-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 41398-2021.docx", "A 41398-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 41398-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 41398-2021.docx", "A 41398-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 41398-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 41398-2021.docx", "A 41398-2021")</f>
         <v/>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 2518-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 2518-2023.xlsx", "A 2518-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 2518-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 2518-2023.png", "A 2518-2023")</f>
         <v/>
       </c>
       <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 2518-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 2518-2023.png", "A 2518-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 2518-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 2518-2023.docx", "A 2518-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 2518-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 2518-2023.docx", "A 2518-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 2518-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 2518-2023.docx", "A 2518-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 2518-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 2518-2023.docx", "A 2518-2023")</f>
         <v/>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3017,27 +3017,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 22825-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 22825-2023.xlsx", "A 22825-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 22825-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 22825-2023.png", "A 22825-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 22825-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 22825-2023.docx", "A 22825-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 22825-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 22825-2023.docx", "A 22825-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 22825-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 22825-2023.docx", "A 22825-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 22825-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 22825-2023.docx", "A 22825-2023")</f>
         <v/>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3102,27 +3102,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 46598-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 46598-2018.xlsx", "A 46598-2018")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 46598-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 46598-2018.png", "A 46598-2018")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 46598-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 46598-2018.docx", "A 46598-2018")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 46598-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 46598-2018.docx", "A 46598-2018")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 46598-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 46598-2018.docx", "A 46598-2018")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 46598-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 46598-2018.docx", "A 46598-2018")</f>
         <v/>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3187,27 +3187,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 59892-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 59892-2018.xlsx", "A 59892-2018")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 59892-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 59892-2018.png", "A 59892-2018")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 59892-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 59892-2018.docx", "A 59892-2018")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 59892-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 59892-2018.docx", "A 59892-2018")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 59892-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 59892-2018.docx", "A 59892-2018")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 59892-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 59892-2018.docx", "A 59892-2018")</f>
         <v/>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3272,27 +3272,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 1303-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 1303-2019.xlsx", "A 1303-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 1303-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 1303-2019.png", "A 1303-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 1303-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 1303-2019.docx", "A 1303-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 1303-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 1303-2019.docx", "A 1303-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 1303-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 1303-2019.docx", "A 1303-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 1303-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 1303-2019.docx", "A 1303-2019")</f>
         <v/>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3357,27 +3357,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 4895-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 4895-2019.xlsx", "A 4895-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 4895-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 4895-2019.png", "A 4895-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 4895-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 4895-2019.docx", "A 4895-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 4895-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 4895-2019.docx", "A 4895-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 4895-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 4895-2019.docx", "A 4895-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 4895-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 4895-2019.docx", "A 4895-2019")</f>
         <v/>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3442,27 +3442,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 19055-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 19055-2019.xlsx", "A 19055-2019")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 19055-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 19055-2019.png", "A 19055-2019")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 19055-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 19055-2019.docx", "A 19055-2019")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 19055-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 19055-2019.docx", "A 19055-2019")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 19055-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 19055-2019.docx", "A 19055-2019")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 19055-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 19055-2019.docx", "A 19055-2019")</f>
         <v/>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3527,27 +3527,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 32602-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 32602-2019.xlsx", "A 32602-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 32602-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 32602-2019.png", "A 32602-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 32602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 32602-2019.docx", "A 32602-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 32602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 32602-2019.docx", "A 32602-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 32602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 32602-2019.docx", "A 32602-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 32602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 32602-2019.docx", "A 32602-2019")</f>
         <v/>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3612,31 +3612,31 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 52156-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 52156-2019.xlsx", "A 52156-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 52156-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 52156-2019.png", "A 52156-2019")</f>
         <v/>
       </c>
       <c r="U35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 52156-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 52156-2019.png", "A 52156-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 52156-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 52156-2019.docx", "A 52156-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 52156-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 52156-2019.docx", "A 52156-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 52156-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 52156-2019.docx", "A 52156-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 52156-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 52156-2019.docx", "A 52156-2019")</f>
         <v/>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3701,27 +3701,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 64356-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 64356-2019.xlsx", "A 64356-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 64356-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 64356-2019.png", "A 64356-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 64356-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 64356-2019.docx", "A 64356-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 64356-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 64356-2019.docx", "A 64356-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 64356-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 64356-2019.docx", "A 64356-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 64356-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 64356-2019.docx", "A 64356-2019")</f>
         <v/>
       </c>
     </row>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3786,27 +3786,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 35462-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 35462-2020.xlsx", "A 35462-2020")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 35462-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 35462-2020.png", "A 35462-2020")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 35462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 35462-2020.docx", "A 35462-2020")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 35462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 35462-2020.docx", "A 35462-2020")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 35462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 35462-2020.docx", "A 35462-2020")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 35462-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 35462-2020.docx", "A 35462-2020")</f>
         <v/>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3871,27 +3871,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 42097-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 42097-2020.xlsx", "A 42097-2020")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 42097-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 42097-2020.png", "A 42097-2020")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 42097-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 42097-2020.docx", "A 42097-2020")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 42097-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 42097-2020.docx", "A 42097-2020")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 42097-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 42097-2020.docx", "A 42097-2020")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 42097-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 42097-2020.docx", "A 42097-2020")</f>
         <v/>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3956,27 +3956,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 44306-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 44306-2020.xlsx", "A 44306-2020")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 44306-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 44306-2020.png", "A 44306-2020")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 44306-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 44306-2020.docx", "A 44306-2020")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 44306-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 44306-2020.docx", "A 44306-2020")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 44306-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 44306-2020.docx", "A 44306-2020")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 44306-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 44306-2020.docx", "A 44306-2020")</f>
         <v/>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4041,27 +4041,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 57949-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 57949-2020.xlsx", "A 57949-2020")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 57949-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 57949-2020.png", "A 57949-2020")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 57949-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 57949-2020.docx", "A 57949-2020")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 57949-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 57949-2020.docx", "A 57949-2020")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 57949-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 57949-2020.docx", "A 57949-2020")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 57949-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 57949-2020.docx", "A 57949-2020")</f>
         <v/>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4126,27 +4126,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 64674-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 64674-2020.xlsx", "A 64674-2020")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 64674-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 64674-2020.png", "A 64674-2020")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 64674-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 64674-2020.docx", "A 64674-2020")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 64674-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 64674-2020.docx", "A 64674-2020")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 64674-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 64674-2020.docx", "A 64674-2020")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 64674-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 64674-2020.docx", "A 64674-2020")</f>
         <v/>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4211,27 +4211,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 68851-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 68851-2020.xlsx", "A 68851-2020")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 68851-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 68851-2020.png", "A 68851-2020")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 68851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 68851-2020.docx", "A 68851-2020")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 68851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 68851-2020.docx", "A 68851-2020")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 68851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 68851-2020.docx", "A 68851-2020")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 68851-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 68851-2020.docx", "A 68851-2020")</f>
         <v/>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4296,27 +4296,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 32396-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 32396-2021.xlsx", "A 32396-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 32396-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 32396-2021.png", "A 32396-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 32396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 32396-2021.docx", "A 32396-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 32396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 32396-2021.docx", "A 32396-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 32396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 32396-2021.docx", "A 32396-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 32396-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 32396-2021.docx", "A 32396-2021")</f>
         <v/>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4381,27 +4381,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37930-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 37930-2021.xlsx", "A 37930-2021")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37930-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 37930-2021.png", "A 37930-2021")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37930-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 37930-2021.docx", "A 37930-2021")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37930-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 37930-2021.docx", "A 37930-2021")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37930-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 37930-2021.docx", "A 37930-2021")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37930-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 37930-2021.docx", "A 37930-2021")</f>
         <v/>
       </c>
     </row>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4466,27 +4466,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 71785-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 71785-2021.xlsx", "A 71785-2021")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 71785-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 71785-2021.png", "A 71785-2021")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 71785-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 71785-2021.docx", "A 71785-2021")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 71785-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 71785-2021.docx", "A 71785-2021")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 71785-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 71785-2021.docx", "A 71785-2021")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 71785-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 71785-2021.docx", "A 71785-2021")</f>
         <v/>
       </c>
     </row>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4551,31 +4551,31 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 1943-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 1943-2023.xlsx", "A 1943-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 1943-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 1943-2023.png", "A 1943-2023")</f>
         <v/>
       </c>
       <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 1943-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/knärot/A 1943-2023.png", "A 1943-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 1943-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 1943-2023.docx", "A 1943-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 1943-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 1943-2023.docx", "A 1943-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 1943-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 1943-2023.docx", "A 1943-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 1943-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 1943-2023.docx", "A 1943-2023")</f>
         <v/>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4640,27 +4640,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 28852-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 28852-2023.xlsx", "A 28852-2023")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 28852-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 28852-2023.png", "A 28852-2023")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 28852-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 28852-2023.docx", "A 28852-2023")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 28852-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 28852-2023.docx", "A 28852-2023")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 28852-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 28852-2023.docx", "A 28852-2023")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 28852-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 28852-2023.docx", "A 28852-2023")</f>
         <v/>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4725,27 +4725,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 32985-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/artfynd/A 32985-2023.xlsx", "A 32985-2023")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 32985-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/kartor/A 32985-2023.png", "A 32985-2023")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 32985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomål/A 32985-2023.docx", "A 32985-2023")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 32985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/klagomålsmail/A 32985-2023.docx", "A 32985-2023")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 32985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsyn/A 32985-2023.docx", "A 32985-2023")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 32985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VIMMERBY/tillsynsmail/A 32985-2023.docx", "A 32985-2023")</f>
         <v/>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43680,7 +43680,7 @@
         <v>45180</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>45181</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43680,7 +43680,7 @@
         <v>45180</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>45181</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43680,7 +43680,7 @@
         <v>45180</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>45181</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29982,7 +29982,7 @@
         <v>44302</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30039,7 +30039,7 @@
         <v>44305</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>44307</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>44310</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>44312</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>44312</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30324,7 +30324,7 @@
         <v>44337</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44340</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30438,7 +30438,7 @@
         <v>44340</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30495,7 +30495,7 @@
         <v>44341</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30552,7 +30552,7 @@
         <v>44350</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44350</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30666,7 +30666,7 @@
         <v>44354</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30723,7 +30723,7 @@
         <v>44365</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>44369</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30842,7 +30842,7 @@
         <v>44377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         <v>44377</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30956,7 +30956,7 @@
         <v>44379</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31018,7 +31018,7 @@
         <v>44379</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31080,7 +31080,7 @@
         <v>44383</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31137,7 +31137,7 @@
         <v>44384</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31194,7 +31194,7 @@
         <v>44385</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31251,7 +31251,7 @@
         <v>44386</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31308,7 +31308,7 @@
         <v>44386</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         <v>44386</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31422,7 +31422,7 @@
         <v>44392</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31484,7 +31484,7 @@
         <v>44406</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31541,7 +31541,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31598,7 +31598,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31655,7 +31655,7 @@
         <v>44418</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31712,7 +31712,7 @@
         <v>44418</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31769,7 +31769,7 @@
         <v>44418</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         <v>44421</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31883,7 +31883,7 @@
         <v>44427</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31940,7 +31940,7 @@
         <v>44431</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31997,7 +31997,7 @@
         <v>44440</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>44440</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32111,7 +32111,7 @@
         <v>44447</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32168,7 +32168,7 @@
         <v>44447</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         <v>44451</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32287,7 +32287,7 @@
         <v>44452</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32344,7 +32344,7 @@
         <v>44475</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32401,7 +32401,7 @@
         <v>44475</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32458,7 +32458,7 @@
         <v>44476</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32515,7 +32515,7 @@
         <v>44477</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32572,7 +32572,7 @@
         <v>44480</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32629,7 +32629,7 @@
         <v>44480</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32686,7 +32686,7 @@
         <v>44480</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32743,7 +32743,7 @@
         <v>44480</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>44480</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32857,7 +32857,7 @@
         <v>44483</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32914,7 +32914,7 @@
         <v>44494</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
         <v>44494</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44495</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>44495</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>44502</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>44508</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33261,7 +33261,7 @@
         <v>44509</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>44517</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         <v>44517</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33432,7 +33432,7 @@
         <v>44525</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33489,7 +33489,7 @@
         <v>44539</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33546,7 +33546,7 @@
         <v>44539</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33603,7 +33603,7 @@
         <v>44540</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33660,7 +33660,7 @@
         <v>44546</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
         <v>44553</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>44564</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33831,7 +33831,7 @@
         <v>44566</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33888,7 +33888,7 @@
         <v>44573</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33945,7 +33945,7 @@
         <v>44575</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34002,7 +34002,7 @@
         <v>44587</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34059,7 +34059,7 @@
         <v>44588</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44588</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         <v>44588</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34230,7 +34230,7 @@
         <v>44588</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34287,7 +34287,7 @@
         <v>44588</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34344,7 +34344,7 @@
         <v>44588</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44588</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44590</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34572,7 +34572,7 @@
         <v>44595</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34629,7 +34629,7 @@
         <v>44596</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34686,7 +34686,7 @@
         <v>44598</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34743,7 +34743,7 @@
         <v>44599</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34800,7 +34800,7 @@
         <v>44599</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34857,7 +34857,7 @@
         <v>44600</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34914,7 +34914,7 @@
         <v>44600</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34971,7 +34971,7 @@
         <v>44603</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35028,7 +35028,7 @@
         <v>44603</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>44604</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>44607</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>44608</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         <v>44609</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35313,7 +35313,7 @@
         <v>44612</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35370,7 +35370,7 @@
         <v>44613</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35427,7 +35427,7 @@
         <v>44614</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35484,7 +35484,7 @@
         <v>44620</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         <v>44621</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
         <v>44630</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35655,7 +35655,7 @@
         <v>44634</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>44635</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>44635</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         <v>44636</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35883,7 +35883,7 @@
         <v>44643</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35940,7 +35940,7 @@
         <v>44644</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35997,7 +35997,7 @@
         <v>44659</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36059,7 +36059,7 @@
         <v>44662</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36116,7 +36116,7 @@
         <v>44662</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36173,7 +36173,7 @@
         <v>44666</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36230,7 +36230,7 @@
         <v>44670</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>44670</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36344,7 +36344,7 @@
         <v>44670</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>44678</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>44733</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36515,7 +36515,7 @@
         <v>44733</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36572,7 +36572,7 @@
         <v>44742</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44747</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36686,7 +36686,7 @@
         <v>44754</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36743,7 +36743,7 @@
         <v>44756</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>44774</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44776</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44788</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44789</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>44789</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37085,7 +37085,7 @@
         <v>44790</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37142,7 +37142,7 @@
         <v>44790</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37199,7 +37199,7 @@
         <v>44792</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37256,7 +37256,7 @@
         <v>44795</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37313,7 +37313,7 @@
         <v>44799</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37370,7 +37370,7 @@
         <v>44817</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37427,7 +37427,7 @@
         <v>44819</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37484,7 +37484,7 @@
         <v>44820</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44820</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44823</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44824</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
         <v>44826</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37769,7 +37769,7 @@
         <v>44834</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         <v>44837</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
         <v>44840</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37940,7 +37940,7 @@
         <v>44840</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37997,7 +37997,7 @@
         <v>44840</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44846</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44852</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44852</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44854</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44861</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44862</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44862</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38453,7 +38453,7 @@
         <v>44866</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         <v>44867</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38572,7 +38572,7 @@
         <v>44867</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38629,7 +38629,7 @@
         <v>44867</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38686,7 +38686,7 @@
         <v>44879</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38743,7 +38743,7 @@
         <v>44883</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38805,7 +38805,7 @@
         <v>44890</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38862,7 +38862,7 @@
         <v>44890</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38919,7 +38919,7 @@
         <v>44893</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
         <v>44893</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39033,7 +39033,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39090,7 +39090,7 @@
         <v>44896</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39147,7 +39147,7 @@
         <v>44897</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39204,7 +39204,7 @@
         <v>44903</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>44909</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>44910</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>44918</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>44918</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39489,7 +39489,7 @@
         <v>44931</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44935</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44935</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>44938</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39727,7 +39727,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39784,7 +39784,7 @@
         <v>44939</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39841,7 +39841,7 @@
         <v>44946</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>44949</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39955,7 +39955,7 @@
         <v>44949</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40017,7 +40017,7 @@
         <v>44956</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40079,7 +40079,7 @@
         <v>44961</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40136,7 +40136,7 @@
         <v>44965</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40193,7 +40193,7 @@
         <v>44966</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40250,7 +40250,7 @@
         <v>44966</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40307,7 +40307,7 @@
         <v>44977</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40364,7 +40364,7 @@
         <v>44979</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40421,7 +40421,7 @@
         <v>44984</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>44984</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40535,7 +40535,7 @@
         <v>44984</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40592,7 +40592,7 @@
         <v>44984</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40649,7 +40649,7 @@
         <v>44987</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44988</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40763,7 +40763,7 @@
         <v>44991</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44992</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40877,7 +40877,7 @@
         <v>44992</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40934,7 +40934,7 @@
         <v>44992</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>44992</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>44992</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>44995</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45002</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41224,7 +41224,7 @@
         <v>45007</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41281,7 +41281,7 @@
         <v>45009</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41338,7 +41338,7 @@
         <v>45012</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41395,7 +41395,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41452,7 +41452,7 @@
         <v>45014</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41509,7 +41509,7 @@
         <v>45018</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41566,7 +41566,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41623,7 +41623,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
         <v>45028</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41737,7 +41737,7 @@
         <v>45029</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>45041</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45041</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>45045</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>45052</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>45055</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45061</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45061</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>45070</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>45070</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45071</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42426,7 +42426,7 @@
         <v>45072</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42483,7 +42483,7 @@
         <v>45076</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42540,7 +42540,7 @@
         <v>45077</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45086</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45086</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>45090</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>45092</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45096</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45105</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42939,7 +42939,7 @@
         <v>45106</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45111</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43053,7 +43053,7 @@
         <v>45113</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45114</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45121</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45121</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>45124</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45142</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45148</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45148</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45160</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45160</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>45169</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43680,7 +43680,7 @@
         <v>45180</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43742,7 +43742,7 @@
         <v>45181</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>

--- a/Översikt VIMMERBY.xlsx
+++ b/Översikt VIMMERBY.xlsx
@@ -572,7 +572,7 @@
         <v>44811</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>44811</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>43530</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>43783</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44811</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         <v>44939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>43566</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>43790</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44798</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>43453</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>43670</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>44245</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44811</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>44974</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>45020</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43417</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43453</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
         <v>43530</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43530</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         <v>43672</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43689</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>44424</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44943</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>45072</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>43419</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43473</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43487</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>43563</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43647</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>43742</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43797</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44042</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>44075</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>44142</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         <v>44169</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>44187</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44371</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44403</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44539</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44939</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>45104</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>43327</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>43327</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>43327</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>43327</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>43327</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>43332</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>43357</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>43367</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>43368</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>43368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5344,7 +5344,7 @@
         <v>43377</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>43377</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>43377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>43382</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>43384</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>43385</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>43398</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>43398</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>43403</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>43403</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>43404</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>43405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>43409</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>43410</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>43410</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>43413</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43413</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>43415</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>43417</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>43417</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>43418</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>43419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>43424</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>43426</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>43430</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         <v>43430</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>43430</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>43431</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43433</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43434</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43434</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43436</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43438</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>43439</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>43439</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>43451</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>43452</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         <v>43455</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>43462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>43462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>43462</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43469</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43474</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         <v>43475</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         <v>43475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
         <v>43476</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>43479</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>43479</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43479</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         <v>43480</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8950,7 +8950,7 @@
         <v>43481</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9007,7 +9007,7 @@
         <v>43483</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         <v>43485</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         <v>43486</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
         <v>43486</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43487</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9349,7 +9349,7 @@
         <v>43488</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43489</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9463,7 +9463,7 @@
         <v>43489</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         <v>43489</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
         <v>43489</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9634,7 +9634,7 @@
         <v>43494</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9691,7 +9691,7 @@
         <v>43494</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         <v>43494</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9810,7 +9810,7 @@
         <v>43494</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43501</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>43509</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>43509</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>43511</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>43511</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>43511</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>43511</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>43517</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>43522</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>43522</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>43523</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>43527</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10551,7 +10551,7 @@
         <v>43528</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>43530</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>43531</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>43531</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>43532</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>43532</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>43532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>43534</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>43536</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>43537</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43539</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>43539</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         <v>43539</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         <v>43542</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         <v>43552</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43552</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43552</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11577,7 +11577,7 @@
         <v>43552</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11634,7 +11634,7 @@
         <v>43552</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         <v>43553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         <v>43559</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>43559</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11862,7 +11862,7 @@
         <v>43560</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11919,7 +11919,7 @@
         <v>43563</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11976,7 +11976,7 @@
         <v>43563</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
         <v>43563</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         <v>43566</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         <v>43566</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>43567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12266,7 +12266,7 @@
         <v>43570</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>43571</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>43572</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12437,7 +12437,7 @@
         <v>43580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12494,7 +12494,7 @@
         <v>43580</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12551,7 +12551,7 @@
         <v>43581</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>43587</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12665,7 +12665,7 @@
         <v>43588</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43593</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43599</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43602</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43609</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12950,7 +12950,7 @@
         <v>43613</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43624</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>43626</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>43629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>43630</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>43630</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13406,7 +13406,7 @@
         <v>43632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>43632</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43636</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>43640</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43642</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43648</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43648</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43648</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43648</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43649</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43650</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43650</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43651</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43652</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43655</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43655</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43655</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43655</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43657</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43665</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43665</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43665</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43668</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>43668</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43669</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>43670</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>43672</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>43674</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>43675</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>43676</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>43677</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>43678</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>43684</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>43685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>43687</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         <v>43689</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15463,7 +15463,7 @@
         <v>43689</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>43689</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>43691</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>43691</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>43691</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15748,7 +15748,7 @@
         <v>43691</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>43691</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>43692</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>43692</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         <v>43692</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>43692</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>43692</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         <v>43692</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16204,7 +16204,7 @@
         <v>43692</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43693</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43696</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>43696</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>43698</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>43703</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>43704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16608,7 +16608,7 @@
         <v>43704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>43705</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43705</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>43710</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>43712</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         <v>43714</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16950,7 +16950,7 @@
         <v>43714</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>43714</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17064,7 +17064,7 @@
         <v>43718</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>43718</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>43719</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>43719</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>43720</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>43725</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>43725</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>43726</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17530,7 +17530,7 @@
         <v>43726</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         <v>43726</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>43728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>43728</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>43731</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>43731</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>43731</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>43733</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>43733</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>43733</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>43733</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18172,7 +18172,7 @@
         <v>43733</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>43733</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>43733</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>43733</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>43733</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>43733</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>43734</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>43735</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>43738</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>43739</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>43740</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>43740</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>43742</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>43745</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>43746</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>43746</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>43746</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>43749</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43754</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43755</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43762</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43767</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43768</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>43773</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19679,7 +19679,7 @@
         <v>43780</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19736,7 +19736,7 @@
         <v>43781</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19793,7 +19793,7 @@
         <v>43781</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19850,7 +19850,7 @@
         <v>43782</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19907,7 +19907,7 @@
         <v>43787</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19964,7 +19964,7 @@
         <v>43789</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20026,7 +20026,7 @@
         <v>43791</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>43795</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>43796</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>43797</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20259,7 +20259,7 @@
         <v>43797</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20316,7 +20316,7 @@
         <v>43802</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>43808</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20440,7 +20440,7 @@
         <v>43808</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
         <v>43812</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20559,7 +20559,7 @@
         <v>43812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>43812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>43837</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>43838</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>43840</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>43845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>43845</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>43845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>43850</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>43850</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>43851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>43852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>43853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>43853</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>43853</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21424,7 +21424,7 @@
         <v>43857</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>43857</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>43858</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21595,7 +21595,7 @@
         <v>43861</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>43865</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21714,7 +21714,7 @@
         <v>43873</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21771,7 +21771,7 @@
         <v>43878</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21828,7 +21828,7 @@
         <v>43879</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21885,7 +21885,7 @@
         <v>43880</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>43881</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>43887</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>43887</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>43889</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>43892</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>43899</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>43900</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>43902</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22398,7 +22398,7 @@
         <v>43903</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22455,7 +22455,7 @@
         <v>43906</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>43917</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>43930</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>43930</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>43935</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>43955</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>43956</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>43958</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>43962</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>43963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>43963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>43963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>43964</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>43968</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>43968</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>43970</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>43971</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>43971</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>43978</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>43978</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>43978</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>43984</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23714,7 +23714,7 @@
         <v>43990</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23771,7 +23771,7 @@
         <v>43992</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23828,7 +23828,7 @@
         <v>43992</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23885,7 +23885,7 @@
         <v>43992</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23942,7 +23942,7 @@
         <v>44000</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44000</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24056,7 +24056,7 @@
         <v>44000</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>44004</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44006</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44006</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24294,7 +24294,7 @@
         <v>44006</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>44007</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44012</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>44013</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>44021</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44027</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44028</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>44028</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>44035</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24812,7 +24812,7 @@
         <v>44036</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24869,7 +24869,7 @@
         <v>44041</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24983,7 +24983,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25040,7 +25040,7 @@
         <v>44054</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25097,7 +25097,7 @@
         <v>44054</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>44054</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25211,7 +25211,7 @@
         <v>44055</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25273,7 +25273,7 @@
         <v>44057</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>44057</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25387,7 +25387,7 @@
         <v>44060</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         <v>44060</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25501,7 +25501,7 @@
         <v>44061</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25558,7 +25558,7 @@
         <v>44061</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25615,7 +25615,7 @@
         <v>44062</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25672,7 +25672,7 @@
         <v>44063</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25729,7 +25729,7 @@
         <v>44063</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>44063</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>44063</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>44063</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>44064</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>44064</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26071,7 +26071,7 @@
         <v>44068</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         <v>44070</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26185,7 +26185,7 @@
         <v>44070</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44070</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44070</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44075</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26413,7 +26413,7 @@
         <v>44077</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44078</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26532,7 +26532,7 @@
         <v>44083</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26589,7 +26589,7 @@
         <v>44083</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44085</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44088</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26760,7 +26760,7 @@
         <v>44088</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26817,7 +26817,7 @@
         <v>44090</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26874,7 +26874,7 @@
         <v>44091</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26931,7 +26931,7 @@
         <v>44092</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26988,7 +26988,7 @@
         <v>44095</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27050,7 +27050,7 @@
         <v>44097</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27107,7 +27107,7 @@
         <v>44102</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27164,7 +27164,7 @@
         <v>44102</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27221,7 +27221,7 @@
         <v>44105</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>44109</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>44109</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>44116</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>44117</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>44120</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>44123</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27682,7 +27682,7 @@
         <v>44127</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44142</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>44144</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44144</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>44154</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>44159</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44169</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>44172</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44172</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44175</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44175</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>44176</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>44186</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>44186</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44203</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44210</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44214</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44215</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>44217</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>44225</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>44236</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44237</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>44238</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>44242</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>44243</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>44245</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>44259</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44259</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>44260</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>44267</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29573,7 +29573,7 @@
         <v>44270</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29630,7 +29630,7 @@
         <v>44273</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29687,7 +29687,7 @@
         <v>44273</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29744,7 +29744,7 @@
         <v>44279</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44292</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
         <v>44294</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         <v>44294</v>
       </c>
       <c r="C487" s="1" t="n">
-       